--- a/biology/Zoologie/Garrulaxe_de_Biet/Garrulaxe_de_Biet.xlsx
+++ b/biology/Zoologie/Garrulaxe_de_Biet/Garrulaxe_de_Biet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Garrulax bieti
 Le Garrulaxe de Biet (Garrulax bieti) est une espèce d'oiseaux de la famille des Leiothrichidae. Elle est endémique de Chine. Un spécimen fut envoyé du Tibet par Mgr Félix Biet, missionnaire et naturaliste français, au Muséum d'histoire naturelle et nommé d'après lui par Émile Oustalet en 1897.
@@ -512,9 +524,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il habite les forêts du Sud-Ouest de la Chine[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il habite les forêts du Sud-Ouest de la Chine.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce monotypique[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce monotypique,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Menaces et conservations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est considérée comme « vulnérable » de l'UICN[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est considérée comme « vulnérable » de l'UICN.
 </t>
         </is>
       </c>
